--- a/data/extracted_data/raw_round2/Holmes_1999_Fig_12.xlsx
+++ b/data/extracted_data/raw_round2/Holmes_1999_Fig_12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82A673-B1B8-1949-960A-BDC8F26360B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{1D82A673-B1B8-1949-960A-BDC8F26360B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ECC6F3A-B373-EA46-BB87-41A6F37BC8B9}"/>
   <bookViews>
-    <workbookView xWindow="21020" yWindow="11300" windowWidth="28040" windowHeight="17440" xr2:uid="{ABB75798-BF7C-E140-98A8-DD304422654D}"/>
+    <workbookView xWindow="1120" yWindow="2820" windowWidth="28800" windowHeight="16340" xr2:uid="{ABB75798-BF7C-E140-98A8-DD304422654D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>Okadaic acid</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>toxticity</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -60,6 +54,12 @@
   </si>
   <si>
     <t>DTX-1b</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -122,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B60EBD8-27D6-6344-BEF9-4A9C0DC80DB4}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,13 +435,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.8963322978254298</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>12.6991682533319</v>
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>6.9522998296422402</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>4.22988275378294</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>10.973494338109999</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2.2356949594147602</v>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>14.9939873734843</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0.47299328590039003</v>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>18.933109530012999</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>0.56268163142599104</v>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>24.994538530914902</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0.29111133380097998</v>
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>32.039783545445403</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>0.36025653873133401</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -545,10 +545,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>3.8963322978254298</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0.77713197715201299</v>
@@ -556,10 +556,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>6.9522998296422402</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1.3363062431105199</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>10.973494338109999</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1.3097504759995899</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>14.9939873734843</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0.47299328590039003</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>18.933109530012999</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>0.56268163142599104</v>
@@ -600,10 +600,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>24.994538530914902</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>0.29111133380097998</v>
@@ -611,10 +611,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>32.039783545445403</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>0.36025653873133401</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>-5.0395968322533201E-2</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>9.1666666666666607</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>3.9882809375249901</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>2.7777777777777701</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
-        <v>6.9353951683865196</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2.9861111111111098</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" s="1">
-        <v>10.9467742580593</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>2.01388888888888</v>
@@ -666,10 +666,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>14.961303095752299</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0.41666666666666402</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>18.968832493400502</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>0.20833333333333501</v>
@@ -688,10 +688,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
-        <v>21.9148968082553</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>0.625</v>
@@ -699,10 +699,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>24.9407547396208</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>0.20833333333333501</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>27.962413006959402</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>0.625</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>31.9688924886009</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>0.625</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
-        <v>-1.3648908087352699E-2</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>1.875</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1">
-        <v>3.9165366770658299</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>2.01388888888888</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
         <v>7</v>
-      </c>
-      <c r="B30" s="1">
-        <v>6.9483441324694004</v>
       </c>
       <c r="C30">
         <v>0.41666666666666402</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
-        <v>10.9513238940884</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>1.1111111111111001</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
-        <v>14.961303095752299</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>0.41666666666666402</v>
@@ -787,10 +787,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
-        <v>18.950983921286198</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>3.75</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1">
-        <v>21.9169966402687</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>0.20833333333333501</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
-        <v>24.936905047596099</v>
+        <v>25</v>
       </c>
       <c r="C35">
         <v>0.97222222222222099</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1">
-        <v>27.964862810975099</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>0.13888888888888501</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
-        <v>31.971342292616502</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>0.13888888888888501</v>

--- a/data/extracted_data/raw_round2/Holmes_1999_Fig_12.xlsx
+++ b/data/extracted_data/raw_round2/Holmes_1999_Fig_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{1D82A673-B1B8-1949-960A-BDC8F26360B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ECC6F3A-B373-EA46-BB87-41A6F37BC8B9}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{1D82A673-B1B8-1949-960A-BDC8F26360B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADE1E2C-A29E-0349-9436-489EF81132FA}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="2820" windowWidth="28800" windowHeight="16340" xr2:uid="{ABB75798-BF7C-E140-98A8-DD304422654D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{ABB75798-BF7C-E140-98A8-DD304422654D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
   <si>
     <t>treatment</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -119,6 +125,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,425 +428,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B60EBD8-27D6-6344-BEF9-4A9C0DC80DB4}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>23.720813708788398</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>12.6991682533319</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4.22988275378294</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.2356949594147602</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.47299328590039003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.56268163142599104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.29111133380097998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
         <v>32</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.36025653873133401</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2.30884858202224</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>0.77713197715201299</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.3363062431105199</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.3097504759995899</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.47299328590039003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
         <v>19</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.56268163142599104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
         <v>25</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.29111133380097998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
         <v>32</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.36025653873133401</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>9.1666666666666607</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19">
         <v>2.7777777777777701</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2.9861111111111098</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2.01388888888888</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.41666666666666402</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1">
         <v>19</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.20833333333333501</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.20833333333333501</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1">
         <v>28</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.625</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
         <v>32</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.625</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.875</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
-      <c r="C29">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29">
         <v>2.01388888888888</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.41666666666666402</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.1111111111111001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
         <v>15</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.41666666666666402</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
         <v>19</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
         <v>22</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.20833333333333501</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
         <v>25</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.97222222222222099</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1">
         <v>28</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.13888888888888501</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
         <v>32</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.13888888888888501</v>
       </c>
     </row>
